--- a/APM files/122284471/122284471 VID import.xlsx
+++ b/APM files/122284471/122284471 VID import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122284471\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF1669-4783-4D46-A259-B9D592A0C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE5C2E-8808-4A2A-8BE0-0FF3E3E415D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="5415" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10830" yWindow="4020" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>ARE</t>
+  </si>
+  <si>
+    <t>UAE</t>
   </si>
 </sst>
 </file>
@@ -150,6 +153,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -516,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +536,7 @@
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" customWidth="1"/>
     <col min="15" max="15" width="42.140625" customWidth="1"/>
@@ -611,6 +615,9 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
@@ -653,6 +660,9 @@
       <c r="E3" t="s">
         <v>31</v>
       </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>

--- a/APM files/122284471/122284471 VID import.xlsx
+++ b/APM files/122284471/122284471 VID import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122284471\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE5C2E-8808-4A2A-8BE0-0FF3E3E415D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A627881-31C5-4F19-BD44-7F5A1052889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="4020" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12750" yWindow="3855" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -135,13 +135,16 @@
   </si>
   <si>
     <t>UAE</t>
+  </si>
+  <si>
+    <t>Lux BnB vacation homes rental LLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -168,19 +171,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,9 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,8 +637,12 @@
       <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="4" t="s">
         <v>22</v>
@@ -678,8 +686,12 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="4" t="s">
         <v>22</v>
